--- a/ProductBacklog_BurnDownCharts.xlsx
+++ b/ProductBacklog_BurnDownCharts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anita\Desktop\Uni\4.Semester\SE2\UE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anita\Desktop\Uni\4.Semester\SE2\GitHub\SS16_SE2_Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -328,7 +328,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -440,11 +439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373282128"/>
-        <c:axId val="373280560"/>
+        <c:axId val="256641656"/>
+        <c:axId val="256638912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373282128"/>
+        <c:axId val="256641656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +485,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373280560"/>
+        <c:crossAx val="256638912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373280560"/>
+        <c:axId val="256638912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +544,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373282128"/>
+        <c:crossAx val="256641656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -559,7 +558,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1483,7 +1481,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProductBacklog_BurnDownCharts.xlsx
+++ b/ProductBacklog_BurnDownCharts.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -145,12 +145,6 @@
     <t>4 Woche</t>
   </si>
   <si>
-    <t>Wirklich verbleibenden Stunden</t>
-  </si>
-  <si>
-    <t>Geschätzte verbleibenden Stunden</t>
-  </si>
-  <si>
     <t>5 Woche</t>
   </si>
   <si>
@@ -164,6 +158,21 @@
   </si>
   <si>
     <t>9 Woche</t>
+  </si>
+  <si>
+    <t>Wirklich verbleibende Zeit</t>
+  </si>
+  <si>
+    <t>Geschätzte Zeit</t>
+  </si>
+  <si>
+    <t>1 Sprint</t>
+  </si>
+  <si>
+    <t>2 Sprint</t>
+  </si>
+  <si>
+    <t>3 Sprint</t>
   </si>
 </sst>
 </file>
@@ -233,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +252,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -323,7 +333,540 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
-              <a:t>Sprint Burn Down Chart</a:t>
+              <a:t>1.Sprint </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint Burn Down Chart'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wirklich verbleibende Zeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Burn Down Chart'!$C$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint Burn Down Chart'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Geschätzte Zeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Burn Down Chart'!$C$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3300000000000018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="304123688"/>
+        <c:axId val="304120160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="304123688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Wochen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304120160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="304120160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Story Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304123688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Release Burn Down Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -366,6 +909,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Release Burn Down Chart'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wirklich verbleibende Zeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -378,12 +932,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Burn Down Chart'!$C$10:$G$10</c:f>
+              <c:f>'Release Burn Down Chart'!$C$15:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -399,6 +989,21 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -407,6 +1012,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Release Burn Down Chart'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Geschätzte Zeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -419,12 +1035,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Burn Down Chart'!$C$11:$G$11</c:f>
+              <c:f>'Release Burn Down Chart'!$C$16:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3400000000000052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6700000000000053</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>5.3290705182007514E-15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -439,16 +1121,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256641656"/>
-        <c:axId val="256638912"/>
+        <c:axId val="304124080"/>
+        <c:axId val="304126040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256641656"/>
+        <c:axId val="304124080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Wochen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -485,7 +1223,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256638912"/>
+        <c:crossAx val="304126040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -493,7 +1231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256638912"/>
+        <c:axId val="304126040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,6 +1251,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Story Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -544,7 +1337,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256641656"/>
+        <c:crossAx val="304124080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -664,6 +1457,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1180,20 +2013,571 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3162300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1478,10 +2862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +2876,7 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,9 +2898,17 @@
       <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1534,11 +2926,14 @@
         <v>30</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1559,8 +2954,11 @@
         <v>2</v>
       </c>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1580,9 +2978,11 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1602,9 +3002,11 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1624,9 +3026,11 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1648,9 +3052,11 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1670,9 +3076,11 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1693,8 +3101,11 @@
         <v>2</v>
       </c>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1717,8 +3128,11 @@
         <v>2</v>
       </c>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1741,8 +3155,11 @@
         <v>2</v>
       </c>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1765,11 +3182,26 @@
         <v>2</v>
       </c>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>SUM(C2:C12)</f>
         <v>66</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H2:H12)</f>
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <f>SUM(I2:I12)</f>
+        <v>33</v>
+      </c>
+      <c r="J13">
+        <f>SUM(J2:J12)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -1823,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -1855,18 +3287,18 @@
       <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1874,38 +3306,48 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1913,58 +3355,56 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C6)</f>
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f>C9-SUM(D2:D6)</f>
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <f>D9-SUM(E2:E6)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <f>SUM(C2:C7)</f>
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <f>C10-8.33</f>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="E10">
+        <f>D10-8.34</f>
+        <v>8.3300000000000018</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="0">E10-8.33</f>
         <v>0</v>
-      </c>
-      <c r="D10">
-        <f>C10-SUM(D2:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>D10-SUM(E2:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>E10-SUM(F2:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>F10-SUM(G2:G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1978,13 +3418,14 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2010,19 +3451,19 @@
         <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2225,7 +3666,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C12)</f>
@@ -2270,10 +3711,51 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <f>C16-8.33</f>
+        <v>57.67</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:F16" si="1">D16-8.33</f>
+        <v>49.34</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>41.010000000000005</v>
+      </c>
+      <c r="G16">
+        <f>F16-11</f>
+        <v>30.010000000000005</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:I16" si="2">G16-11</f>
+        <v>19.010000000000005</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>8.0100000000000051</v>
+      </c>
+      <c r="J16">
+        <f>I16-2.67</f>
+        <v>5.3400000000000052</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16" si="3">J16-2.67</f>
+        <v>2.6700000000000053</v>
+      </c>
+      <c r="L16" s="5">
+        <f>K16-2.67</f>
+        <v>5.3290705182007514E-15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ProductBacklog_BurnDownCharts.xlsx
+++ b/ProductBacklog_BurnDownCharts.xlsx
@@ -338,7 +338,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -528,11 +527,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="304123688"/>
-        <c:axId val="304120160"/>
+        <c:axId val="330023088"/>
+        <c:axId val="330022304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304123688"/>
+        <c:axId val="330023088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +563,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -631,7 +629,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304120160"/>
+        <c:crossAx val="330022304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304120160"/>
+        <c:axId val="330022304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +683,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -746,7 +743,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304123688"/>
+        <c:crossAx val="330023088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -764,7 +761,6 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1121,11 +1117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="304124080"/>
-        <c:axId val="304126040"/>
+        <c:axId val="330020344"/>
+        <c:axId val="330026616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304124080"/>
+        <c:axId val="330020344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1219,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304126040"/>
+        <c:crossAx val="330026616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1231,7 +1227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304126040"/>
+        <c:axId val="330026616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1333,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304124080"/>
+        <c:crossAx val="330020344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/ProductBacklog_BurnDownCharts.xlsx
+++ b/ProductBacklog_BurnDownCharts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Start Stunden</t>
-  </si>
-  <si>
     <t>1 Woche</t>
   </si>
   <si>
@@ -196,12 +193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -242,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +256,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -338,6 +342,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -527,11 +532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="330023088"/>
-        <c:axId val="330022304"/>
+        <c:axId val="308167696"/>
+        <c:axId val="308169656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330023088"/>
+        <c:axId val="308167696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,6 +568,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -629,7 +635,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330022304"/>
+        <c:crossAx val="308169656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330022304"/>
+        <c:axId val="308169656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,6 +689,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -743,7 +750,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330023088"/>
+        <c:crossAx val="308167696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,6 +768,7 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -862,11 +870,524 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
+              <a:t>2.Sprint</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint Burn Down Chart'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wirklich verbleibende Zeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Burn Down Chart'!$C$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint Burn Down Chart'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Geschätzte Zeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Burn Down Chart'!$C$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384294936"/>
+        <c:axId val="384291408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="384294936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Wochen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384291408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="384291408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Story Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384294936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
               <a:t>Release Burn Down Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -971,34 +1492,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,11 +1638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="330020344"/>
-        <c:axId val="330026616"/>
+        <c:axId val="309896944"/>
+        <c:axId val="309898120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330020344"/>
+        <c:axId val="309896944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,6 +1674,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1219,7 +1741,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330026616"/>
+        <c:crossAx val="309898120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330026616"/>
+        <c:axId val="309898120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,6 +1795,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1333,7 +1856,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330020344"/>
+        <c:crossAx val="309896944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,6 +1870,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1493,6 +2017,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2010,6 +2574,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2552,6 +3632,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2860,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,13 +4005,13 @@
         <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3251,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,13 +4385,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3314,7 +4424,9 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3368,7 +4480,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C6)</f>
@@ -3385,7 +4497,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -3400,6 +4512,120 @@
       </c>
       <c r="F10">
         <f t="shared" ref="F10" si="0">E10-8.33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C17:C20)</f>
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <f>C22-SUM(D17:D20)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C17:C20)</f>
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <f>C23-14.33</f>
+        <v>28.67</v>
+      </c>
+      <c r="E23">
+        <f>D23-14.34</f>
+        <v>14.330000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="E23:F23" si="1">E23-14.33</f>
         <v>0</v>
       </c>
     </row>
@@ -3414,7 +4640,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,34 +4658,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3469,11 +4695,15 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>20</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3487,7 +4717,9 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>13</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3505,7 +4737,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3517,16 +4751,22 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3535,15 +4775,19 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3559,11 +4803,15 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>0.5</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3571,14 +4819,18 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3595,7 +4847,9 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3613,7 +4867,9 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3631,7 +4887,9 @@
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3649,7 +4907,9 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3662,52 +4922,52 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C12)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <f>C15-SUM(D2:D12)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <f t="shared" ref="E15:L15" si="0">D15-SUM(E2:E12)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>66</v>

--- a/ProductBacklog_BurnDownCharts.xlsx
+++ b/ProductBacklog_BurnDownCharts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anita\Desktop\Uni\4.Semester\SE2\UE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anita\Desktop\Uni\4.Semester\SE2\GitHub\SS16_SE2_Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -328,7 +328,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -440,11 +439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373282128"/>
-        <c:axId val="373280560"/>
+        <c:axId val="307497848"/>
+        <c:axId val="307496280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373282128"/>
+        <c:axId val="307497848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +485,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373280560"/>
+        <c:crossAx val="307496280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373280560"/>
+        <c:axId val="307496280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +544,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373282128"/>
+        <c:crossAx val="307497848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -559,7 +558,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>

--- a/ProductBacklog_BurnDownCharts.xlsx
+++ b/ProductBacklog_BurnDownCharts.xlsx
@@ -532,11 +532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="308167696"/>
-        <c:axId val="308169656"/>
+        <c:axId val="247309888"/>
+        <c:axId val="247310280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308167696"/>
+        <c:axId val="247309888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +635,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308169656"/>
+        <c:crossAx val="247310280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -643,7 +643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308169656"/>
+        <c:axId val="247310280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308167696"/>
+        <c:crossAx val="247309888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1048,11 +1048,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="384294936"/>
-        <c:axId val="384291408"/>
+        <c:axId val="299993024"/>
+        <c:axId val="299992240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="384294936"/>
+        <c:axId val="299993024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384291408"/>
+        <c:crossAx val="299992240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1159,7 +1159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384291408"/>
+        <c:axId val="299992240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1266,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384294936"/>
+        <c:crossAx val="299993024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,7 +1387,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1638,11 +1637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="309896944"/>
-        <c:axId val="309898120"/>
+        <c:axId val="299990672"/>
+        <c:axId val="299988712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="309896944"/>
+        <c:axId val="299990672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1673,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1741,7 +1739,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309898120"/>
+        <c:crossAx val="299988712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1749,7 +1747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309898120"/>
+        <c:axId val="299988712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1793,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1856,7 +1853,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309896944"/>
+        <c:crossAx val="299990672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1870,7 +1867,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4363,7 +4359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -4625,7 +4621,7 @@
         <v>14.330000000000002</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="E23:F23" si="1">E23-14.33</f>
+        <f t="shared" ref="F23" si="1">E23-14.33</f>
         <v>0</v>
       </c>
     </row>
